--- a/Week6/Output/costspremiumspmm.xlsx
+++ b/Week6/Output/costspremiumspmm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guanz\Desktop\JIW2\Week6\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38A7CF5F-5D28-4737-B7E1-4D82DB2B22C4}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116F0C33-FC6C-4918-AFBC-6FAA332F6E4B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12547" windowHeight="7473" xr2:uid="{D559BB72-3ECB-4C43-9F54-E37E587E19A4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>State</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>WY</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
 </sst>
 </file>
@@ -556,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C36CE58-052B-451C-96E2-A1CE60942BDC}">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -619,13 +622,13 @@
         <v>-241.940667115</v>
       </c>
       <c r="H2">
-        <v>562.14264026800004</v>
+        <v>788.294196306</v>
       </c>
       <c r="I2">
-        <v>804.08330738300003</v>
+        <v>753.368668146</v>
       </c>
       <c r="J2">
-        <v>-241.940667115</v>
+        <v>34.925528159800002</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.5">
@@ -651,13 +654,13 @@
         <v>-85.016295203599995</v>
       </c>
       <c r="H3">
-        <v>318.23132157600003</v>
+        <v>386.67311660199999</v>
       </c>
       <c r="I3">
-        <v>403.24761677999999</v>
+        <v>436.876733167</v>
       </c>
       <c r="J3">
-        <v>-85.016295203599995</v>
+        <v>-50.203616565499999</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.5">
@@ -683,13 +686,13 @@
         <v>-64.193706347100004</v>
       </c>
       <c r="H4">
-        <v>315.145823791</v>
+        <v>344.04547951400002</v>
       </c>
       <c r="I4">
-        <v>379.33953013899998</v>
+        <v>415.57448402699998</v>
       </c>
       <c r="J4">
-        <v>-64.193706347100004</v>
+        <v>-71.529004513000004</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.5">
@@ -715,13 +718,13 @@
         <v>-78.123181891399994</v>
       </c>
       <c r="H5">
-        <v>276.444266416</v>
+        <v>312.85754674499998</v>
       </c>
       <c r="I5">
-        <v>354.567448308</v>
+        <v>321.956228431</v>
       </c>
       <c r="J5">
-        <v>-78.123181891399994</v>
+        <v>-9.09868168667</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.5">
@@ -747,13 +750,13 @@
         <v>14.501232374300001</v>
       </c>
       <c r="H6">
-        <v>374.23171200399997</v>
+        <v>391.94045938599999</v>
       </c>
       <c r="I6">
-        <v>359.73047962999999</v>
+        <v>379.37926276500002</v>
       </c>
       <c r="J6">
-        <v>14.501232374300001</v>
+        <v>12.561196620900001</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.5">
@@ -779,13 +782,13 @@
         <v>-57.160922717799998</v>
       </c>
       <c r="H7">
-        <v>314.86714366699999</v>
+        <v>367.41390983000002</v>
       </c>
       <c r="I7">
-        <v>372.02806638499999</v>
+        <v>376.17963404699998</v>
       </c>
       <c r="J7">
-        <v>-57.160922717799998</v>
+        <v>-8.7657242174400007</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.5">
@@ -811,13 +814,13 @@
         <v>8.5481599733000007</v>
       </c>
       <c r="H8">
-        <v>415.377905172</v>
+        <v>429.42902430200002</v>
       </c>
       <c r="I8">
-        <v>406.829745199</v>
+        <v>461.96421251700002</v>
       </c>
       <c r="J8">
-        <v>8.5481599733000007</v>
+        <v>-32.535188215600002</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.5">
@@ -843,13 +846,13 @@
         <v>-65.891348948300006</v>
       </c>
       <c r="H9">
-        <v>330.76461286699998</v>
+        <v>321.28113151500003</v>
       </c>
       <c r="I9">
-        <v>396.65596181500001</v>
+        <v>372.36588559199998</v>
       </c>
       <c r="J9">
-        <v>-65.891348948300006</v>
+        <v>-51.059533719299999</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.5">
@@ -875,13 +878,13 @@
         <v>39.443964634099999</v>
       </c>
       <c r="H10">
-        <v>362.78921963400001</v>
+        <v>435.10744894700002</v>
       </c>
       <c r="I10">
-        <v>323.34525500000001</v>
+        <v>401.77844570500002</v>
       </c>
       <c r="J10">
-        <v>39.443964634099999</v>
+        <v>33.329003241499997</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.5">
@@ -907,13 +910,13 @@
         <v>-6.1001002012100001</v>
       </c>
       <c r="H11">
-        <v>361.048871582</v>
+        <v>381.47624744000001</v>
       </c>
       <c r="I11">
-        <v>367.14897178400003</v>
+        <v>376.24013822199998</v>
       </c>
       <c r="J11">
-        <v>-6.1001002012100001</v>
+        <v>5.2361092178300002</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.5">
@@ -939,13 +942,13 @@
         <v>-56.754984332600003</v>
       </c>
       <c r="H12">
-        <v>325.27785601800002</v>
+        <v>371.86133347200001</v>
       </c>
       <c r="I12">
-        <v>382.03284035000001</v>
+        <v>414.79783561300002</v>
       </c>
       <c r="J12">
-        <v>-56.754984332600003</v>
+        <v>-42.936506096599999</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.5">
@@ -971,13 +974,13 @@
         <v>-74.078350292099998</v>
       </c>
       <c r="H13">
-        <v>286.005156699</v>
+        <v>343.49502181399998</v>
       </c>
       <c r="I13">
-        <v>360.08408228399998</v>
+        <v>418.28565849799998</v>
       </c>
       <c r="J13">
-        <v>-74.078350292099998</v>
+        <v>-74.790636683800003</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.5">
@@ -1003,13 +1006,13 @@
         <v>-12.0087908182</v>
       </c>
       <c r="H14">
-        <v>310.17350441100001</v>
+        <v>360.854926272</v>
       </c>
       <c r="I14">
-        <v>322.18229522899998</v>
+        <v>355.32433087200002</v>
       </c>
       <c r="J14">
-        <v>-12.0087908182</v>
+        <v>5.5316272906200004</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.5">
@@ -1035,13 +1038,13 @@
         <v>-98.002359863300001</v>
       </c>
       <c r="H15">
-        <v>278.37329917400001</v>
+        <v>322.64187268299997</v>
       </c>
       <c r="I15">
-        <v>376.37565903699999</v>
+        <v>381.02787549099997</v>
       </c>
       <c r="J15">
-        <v>-98.002359863300001</v>
+        <v>-58.386002808900002</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.5">
@@ -1067,13 +1070,13 @@
         <v>-77.430185649699993</v>
       </c>
       <c r="H16">
-        <v>319.28903116499998</v>
+        <v>369.90045411699998</v>
       </c>
       <c r="I16">
-        <v>396.72131024999999</v>
+        <v>391.36042660200002</v>
       </c>
       <c r="J16">
-        <v>-77.430185649699993</v>
+        <v>-21.455659037</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.5">
@@ -1099,13 +1102,13 @@
         <v>-8.9054386437299993</v>
       </c>
       <c r="H17">
-        <v>405.48967300999999</v>
+        <v>394.38361785299998</v>
       </c>
       <c r="I17">
-        <v>414.39684158400001</v>
+        <v>396.55139014000002</v>
       </c>
       <c r="J17">
-        <v>-8.9054386437299993</v>
+        <v>-2.16777228687</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.5">
@@ -1131,13 +1134,13 @@
         <v>-61.511358750699998</v>
       </c>
       <c r="H18">
-        <v>281.354259141</v>
+        <v>333.46648153400002</v>
       </c>
       <c r="I18">
-        <v>342.86561789199999</v>
+        <v>381.66703065600001</v>
       </c>
       <c r="J18">
-        <v>-61.511358750699998</v>
+        <v>-48.200549121599998</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.5">
@@ -1163,13 +1166,13 @@
         <v>-33.111445357400001</v>
       </c>
       <c r="H19">
-        <v>307.139543006</v>
+        <v>337.155721008</v>
       </c>
       <c r="I19">
-        <v>340.25098836400002</v>
+        <v>314.98704696099998</v>
       </c>
       <c r="J19">
-        <v>-33.111445357400001</v>
+        <v>22.168674047</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.5">
@@ -1195,13 +1198,13 @@
         <v>-35.621985561599999</v>
       </c>
       <c r="H20">
-        <v>357.43268275100002</v>
+        <v>420.25550537700002</v>
       </c>
       <c r="I20">
-        <v>393.05466831199999</v>
+        <v>411.84530175700002</v>
       </c>
       <c r="J20">
-        <v>-35.621985561599999</v>
+        <v>8.4102036199200008</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.5">
@@ -1227,13 +1230,13 @@
         <v>1.3510124329200001E-2</v>
       </c>
       <c r="H21">
-        <v>384.270792019</v>
+        <v>365.38591481700001</v>
       </c>
       <c r="I21">
-        <v>384.25728189500001</v>
+        <v>395.63439928499997</v>
       </c>
       <c r="J21">
-        <v>1.3510124329200001E-2</v>
+        <v>-30.248484467200001</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.5">
@@ -1259,13 +1262,13 @@
         <v>-9.6764380749099992</v>
       </c>
       <c r="H22">
-        <v>290.62170128000002</v>
+        <v>323.94139521699998</v>
       </c>
       <c r="I22">
-        <v>300.29813935499999</v>
+        <v>336.72554241500001</v>
       </c>
       <c r="J22">
-        <v>-9.6764380749099992</v>
+        <v>-12.784147197599999</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.5">
@@ -1291,13 +1294,13 @@
         <v>-45.177920559199997</v>
       </c>
       <c r="H23">
-        <v>405.77605613100002</v>
+        <v>404.64650082899999</v>
       </c>
       <c r="I23">
-        <v>450.95397668999999</v>
+        <v>450.52428962099998</v>
       </c>
       <c r="J23">
-        <v>-45.177920559199997</v>
+        <v>-45.8777887918</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.5">
@@ -1323,13 +1326,13 @@
         <v>9.13469328517</v>
       </c>
       <c r="H24">
-        <v>340.72459188800002</v>
+        <v>361.66802925600001</v>
       </c>
       <c r="I24">
-        <v>331.58989860299999</v>
+        <v>348.96259591500001</v>
       </c>
       <c r="J24">
-        <v>9.13469328517</v>
+        <v>12.705433340400001</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.5">
@@ -1355,13 +1358,13 @@
         <v>-80.153859635100005</v>
       </c>
       <c r="H25">
-        <v>304.14116718000002</v>
+        <v>362.93525705500002</v>
       </c>
       <c r="I25">
-        <v>384.29502681500003</v>
+        <v>415.58852371799998</v>
       </c>
       <c r="J25">
-        <v>-80.153859635100005</v>
+        <v>-52.653266662500002</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.5">
@@ -1387,13 +1390,13 @@
         <v>-0.72474396953300002</v>
       </c>
       <c r="H26">
-        <v>311.94327555500001</v>
+        <v>369.370921356</v>
       </c>
       <c r="I26">
-        <v>312.66801952499998</v>
+        <v>357.722744406</v>
       </c>
       <c r="J26">
-        <v>-0.72474396953300002</v>
+        <v>11.6481769494</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.5">
@@ -1419,13 +1422,13 @@
         <v>12.1364820325</v>
       </c>
       <c r="H27">
-        <v>340.50585696600001</v>
+        <v>356.96947668199999</v>
       </c>
       <c r="I27">
-        <v>328.36937493400001</v>
+        <v>360.28148362899998</v>
       </c>
       <c r="J27">
-        <v>12.1364820325</v>
+        <v>-3.31200694778</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.5">
@@ -1451,13 +1454,13 @@
         <v>-117.766276924</v>
       </c>
       <c r="H28">
-        <v>318.76150541700002</v>
+        <v>390.214832968</v>
       </c>
       <c r="I28">
-        <v>436.52778233999999</v>
+        <v>438.11056198199998</v>
       </c>
       <c r="J28">
-        <v>-117.766276924</v>
+        <v>-47.895729013999997</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.5">
@@ -1483,13 +1486,13 @@
         <v>-6.0507300501000003</v>
       </c>
       <c r="H29">
-        <v>363.80396213099999</v>
+        <v>441.186628364</v>
       </c>
       <c r="I29">
-        <v>369.85468001200002</v>
+        <v>425.06389962899999</v>
       </c>
       <c r="J29">
-        <v>-6.0507300501000003</v>
+        <v>16.122728734599999</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.5">
@@ -1515,13 +1518,13 @@
         <v>39.2815491275</v>
       </c>
       <c r="H30">
-        <v>371.07482536999999</v>
+        <v>398.38737898199997</v>
       </c>
       <c r="I30">
-        <v>331.79327624299998</v>
+        <v>368.90873213499998</v>
       </c>
       <c r="J30">
-        <v>39.2815491275</v>
+        <v>29.478646847499999</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.5">
@@ -1547,13 +1550,13 @@
         <v>-53.227622654500003</v>
       </c>
       <c r="H31">
-        <v>336.34252703200002</v>
+        <v>359.855732402</v>
       </c>
       <c r="I31">
-        <v>389.57014968700003</v>
+        <v>409.70891270499999</v>
       </c>
       <c r="J31">
-        <v>-53.227622654500003</v>
+        <v>-49.8531803037</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.5">
@@ -1579,13 +1582,13 @@
         <v>58.559317771700002</v>
       </c>
       <c r="H32">
-        <v>362.02512530899998</v>
+        <v>386.13676627199999</v>
       </c>
       <c r="I32">
-        <v>303.46580753699999</v>
+        <v>385.08123834100002</v>
       </c>
       <c r="J32">
-        <v>58.559317771700002</v>
+        <v>1.0555279313599999</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.5">
@@ -1611,13 +1614,13 @@
         <v>33.435473582299998</v>
       </c>
       <c r="H33">
-        <v>449.71148240100001</v>
+        <v>468.11684633800002</v>
       </c>
       <c r="I33">
-        <v>416.27600881900003</v>
+        <v>479.964873533</v>
       </c>
       <c r="J33">
-        <v>33.435473582299998</v>
+        <v>-11.8480271942</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.5">
@@ -1643,13 +1646,13 @@
         <v>-44.9193812663</v>
       </c>
       <c r="H34">
-        <v>306.998319439</v>
+        <v>309.070281088</v>
       </c>
       <c r="I34">
-        <v>351.91770070500002</v>
+        <v>313.364646569</v>
       </c>
       <c r="J34">
-        <v>-44.9193812663</v>
+        <v>-4.3164221167500001</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.5">
@@ -1675,13 +1678,13 @@
         <v>-16.741135165999999</v>
       </c>
       <c r="H35">
-        <v>322.695474026</v>
+        <v>350.99914329199999</v>
       </c>
       <c r="I35">
-        <v>339.43660919199999</v>
+        <v>326.58434227700002</v>
       </c>
       <c r="J35">
-        <v>-16.741135165999999</v>
+        <v>24.414801014599998</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.5">
@@ -1707,13 +1710,13 @@
         <v>-18.412453519300001</v>
       </c>
       <c r="H36">
-        <v>398.01711012099997</v>
+        <v>436.35325566500001</v>
       </c>
       <c r="I36">
-        <v>416.42956364100002</v>
+        <v>466.613387891</v>
       </c>
       <c r="J36">
-        <v>-18.412453519300001</v>
+        <v>-30.260132226100001</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.5">
@@ -1739,13 +1742,13 @@
         <v>3.4561922035200001</v>
       </c>
       <c r="H37">
-        <v>336.91840802899998</v>
+        <v>363.14614261000003</v>
       </c>
       <c r="I37">
-        <v>333.46221582599998</v>
+        <v>366.68956129600002</v>
       </c>
       <c r="J37">
-        <v>3.4561922035200001</v>
+        <v>-3.5434186863699999</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.5">
@@ -1771,13 +1774,13 @@
         <v>-107.816546711</v>
       </c>
       <c r="H38">
-        <v>279.09221486400003</v>
+        <v>352.702263958</v>
       </c>
       <c r="I38">
-        <v>386.90876157600002</v>
+        <v>395.71415024200002</v>
       </c>
       <c r="J38">
-        <v>-107.816546711</v>
+        <v>-43.011886284299997</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.5">
@@ -1803,13 +1806,13 @@
         <v>-89.507868185099994</v>
       </c>
       <c r="H39">
-        <v>290.29274146400002</v>
+        <v>345.72944145000002</v>
       </c>
       <c r="I39">
-        <v>379.80060964900002</v>
+        <v>404.89821511500003</v>
       </c>
       <c r="J39">
-        <v>-89.507868185099994</v>
+        <v>-59.168773665300002</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.5">
@@ -1835,13 +1838,13 @@
         <v>-69.740790700999995</v>
       </c>
       <c r="H40">
-        <v>335.86175702499997</v>
+        <v>368.980745899</v>
       </c>
       <c r="I40">
-        <v>405.60274056700001</v>
+        <v>400.27062364599999</v>
       </c>
       <c r="J40">
-        <v>-69.740790700999995</v>
+        <v>-31.289790223800001</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.5">
@@ -1867,13 +1870,13 @@
         <v>66.938156345400003</v>
       </c>
       <c r="H41">
-        <v>365.22621495499999</v>
+        <v>367.041024601</v>
       </c>
       <c r="I41">
-        <v>298.28805861000001</v>
+        <v>330.63263591499998</v>
       </c>
       <c r="J41">
-        <v>66.938156345400003</v>
+        <v>36.408388686400002</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.5">
@@ -1899,13 +1902,13 @@
         <v>-42.897975793800001</v>
       </c>
       <c r="H42">
-        <v>340.223941997</v>
+        <v>390.60828569799997</v>
       </c>
       <c r="I42">
-        <v>383.12191779099999</v>
+        <v>421.33838050000003</v>
       </c>
       <c r="J42">
-        <v>-42.897975793800001</v>
+        <v>-30.730094802</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.5">
@@ -1931,13 +1934,13 @@
         <v>-68.170846283200007</v>
       </c>
       <c r="H43">
-        <v>303.03023891100003</v>
+        <v>352.949843649</v>
       </c>
       <c r="I43">
-        <v>371.20108519500002</v>
+        <v>373.88255075500001</v>
       </c>
       <c r="J43">
-        <v>-68.170846283200007</v>
+        <v>-20.9327071059</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.5">
@@ -1963,13 +1966,13 @@
         <v>-81.801248043399994</v>
       </c>
       <c r="H44">
-        <v>290.48681828000002</v>
+        <v>346.75715175400001</v>
       </c>
       <c r="I44">
-        <v>372.28806632300001</v>
+        <v>380.07648358</v>
       </c>
       <c r="J44">
-        <v>-81.801248043399994</v>
+        <v>-33.319331825600003</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.5">
@@ -1995,13 +1998,13 @@
         <v>-83.881890052700001</v>
       </c>
       <c r="H45">
-        <v>312.33872785</v>
+        <v>332.97162172100002</v>
       </c>
       <c r="I45">
-        <v>396.220617903</v>
+        <v>358.097445843</v>
       </c>
       <c r="J45">
-        <v>-83.881890052700001</v>
+        <v>-25.125824122800001</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.5">
@@ -2027,13 +2030,13 @@
         <v>-81.011558829500004</v>
       </c>
       <c r="H46">
-        <v>218.118826971</v>
+        <v>252.533511672</v>
       </c>
       <c r="I46">
-        <v>299.13038580099999</v>
+        <v>320.586988136</v>
       </c>
       <c r="J46">
-        <v>-81.011558829500004</v>
+        <v>-68.054413324899997</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.5">
@@ -2059,13 +2062,13 @@
         <v>11.826788047699999</v>
       </c>
       <c r="H47">
-        <v>309.78701846400003</v>
+        <v>354.43058997200001</v>
       </c>
       <c r="I47">
-        <v>297.96023041699999</v>
+        <v>362.97696192299998</v>
       </c>
       <c r="J47">
-        <v>11.826788047699999</v>
+        <v>-8.5463719510199994</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.5">
@@ -2091,13 +2094,13 @@
         <v>-1.75031791055</v>
       </c>
       <c r="H48">
-        <v>357.04254916999997</v>
+        <v>368.64726861600002</v>
       </c>
       <c r="I48">
-        <v>358.792867081</v>
+        <v>368.40437599900002</v>
       </c>
       <c r="J48">
-        <v>-1.75031791055</v>
+        <v>0.242892617171</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.5">
@@ -2123,13 +2126,13 @@
         <v>-87.513017045599995</v>
       </c>
       <c r="H49">
-        <v>404.16432008100003</v>
+        <v>447.95149051099997</v>
       </c>
       <c r="I49">
-        <v>491.677337126</v>
+        <v>498.07104710700003</v>
       </c>
       <c r="J49">
-        <v>-87.513017045599995</v>
+        <v>-50.119556595699997</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.5">
@@ -2155,13 +2158,13 @@
         <v>-122.611245783</v>
       </c>
       <c r="H50">
-        <v>416.65658317200001</v>
+        <v>496.94362121500001</v>
       </c>
       <c r="I50">
-        <v>539.26782895500003</v>
+        <v>582.56352985700005</v>
       </c>
       <c r="J50">
-        <v>-122.611245783</v>
+        <v>-85.619908641699993</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.5">
@@ -2187,13 +2190,54 @@
         <v>-73.272143202600006</v>
       </c>
       <c r="H51">
-        <v>509.757496866</v>
+        <v>547.23252918100002</v>
       </c>
       <c r="I51">
-        <v>583.02964006800005</v>
+        <v>610.36223778800002</v>
       </c>
       <c r="J51">
-        <v>-73.272143202600006</v>
+        <v>-63.129708606900003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52">
+        <f>AVERAGE(B2:B51)</f>
+        <v>309.6648262361399</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ref="C52:J52" si="0">AVERAGE(C2:C51)</f>
+        <v>327.90224625428004</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>-18.164351469457596</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>343.55980305432007</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>384.78792689212008</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="0"/>
+        <v>-41.22803225104628</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="0"/>
+        <v>383.72794775614005</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="0"/>
+        <v>404.29871901923997</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="0"/>
+        <v>-20.570618147823978</v>
       </c>
     </row>
   </sheetData>
